--- a/软件开发/00_设计方案/01_数据库设计/问题20190818_回答V2.xlsx
+++ b/软件开发/00_设计方案/01_数据库设计/问题20190818_回答V2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21">
   <si>
     <t>序号</t>
   </si>
@@ -74,6 +74,9 @@
   </si>
   <si>
     <t>这个表是开工类型用的，这个单独拉出来吗？</t>
+  </si>
+  <si>
+    <t>除了工具步骤类型外，其他的步骤类型判断OK NG字段是否也要加在数据库</t>
   </si>
 </sst>
 </file>
@@ -96,6 +99,21 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -111,12 +129,73 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -129,6 +208,14 @@
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -141,101 +228,17 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -248,43 +251,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -296,139 +413,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -457,6 +460,24 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -474,9 +495,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -514,19 +537,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -545,15 +557,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -562,10 +565,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -574,141 +577,138 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
@@ -1039,13 +1039,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75454545454545" defaultRowHeight="14" outlineLevelRow="6" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="8.75454545454545" defaultRowHeight="14" outlineLevelRow="7" outlineLevelCol="4"/>
   <cols>
     <col min="2" max="2" width="33.1272727272727" customWidth="1"/>
     <col min="3" max="3" width="110" customWidth="1"/>
@@ -1057,10 +1057,10 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
@@ -1074,13 +1074,13 @@
       <c r="A2" s="1">
         <v>1</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="2" t="s">
         <v>7</v>
       </c>
       <c r="E2" s="1">
@@ -1091,11 +1091,11 @@
       <c r="A3" s="1">
         <v>2</v>
       </c>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2" t="s">
+      <c r="B3" s="1"/>
+      <c r="C3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="2" t="s">
         <v>9</v>
       </c>
       <c r="E3" s="1">
@@ -1106,13 +1106,13 @@
       <c r="A4" s="1">
         <v>3</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D4" s="3" t="s">
         <v>12</v>
       </c>
       <c r="E4" s="1">
@@ -1123,13 +1123,13 @@
       <c r="A5" s="1">
         <v>4</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D5" s="2" t="s">
         <v>14</v>
       </c>
       <c r="E5" s="1">
@@ -1140,13 +1140,13 @@
       <c r="A6" s="1">
         <v>5</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="D6" s="2" t="s">
         <v>17</v>
       </c>
       <c r="E6" s="1">
@@ -1157,17 +1157,31 @@
       <c r="A7" s="1">
         <v>6</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C7" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="D7" s="2" t="s">
         <v>14</v>
       </c>
       <c r="E7" s="1">
         <v>20190820</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8">
+        <v>20190821</v>
       </c>
     </row>
   </sheetData>

--- a/软件开发/00_设计方案/01_数据库设计/问题20190818_回答V2.xlsx
+++ b/软件开发/00_设计方案/01_数据库设计/问题20190818_回答V2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22">
   <si>
     <t>序号</t>
   </si>
@@ -44,6 +44,9 @@
   </si>
   <si>
     <t>存在一个作业程序分配多个作业台地址的问题，每个PLC地址与BOM物料ID做关联，如何实现之后再谈</t>
+  </si>
+  <si>
+    <t>待讨论</t>
   </si>
   <si>
     <t>作业台模型BOM详细</t>
@@ -99,6 +102,97 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -114,108 +208,16 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -227,8 +229,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -251,61 +254,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -317,109 +416,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -471,9 +474,35 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -495,26 +524,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -530,15 +542,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -565,10 +568,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -577,16 +580,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -595,119 +598,119 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="27" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -719,6 +722,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1039,21 +1045,22 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:F8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75454545454545" defaultRowHeight="14" outlineLevelRow="7" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="8.75454545454545" defaultRowHeight="14" outlineLevelRow="7" outlineLevelCol="5"/>
   <cols>
     <col min="2" max="2" width="33.1272727272727" customWidth="1"/>
     <col min="3" max="3" width="110" customWidth="1"/>
     <col min="4" max="4" width="90.3727272727273" customWidth="1"/>
-    <col min="5" max="5" width="9.54545454545454"/>
+    <col min="5" max="5" width="9.27272727272727" customWidth="1"/>
+    <col min="6" max="6" width="9.54545454545454"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1067,10 +1074,13 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" ht="42" customHeight="1" spans="1:5">
+    <row r="2" ht="42" customHeight="1" spans="1:6">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -1083,11 +1093,14 @@
       <c r="D2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="1">
+      <c r="E2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" s="1">
         <v>20190820</v>
       </c>
     </row>
-    <row r="3" ht="48.75" customHeight="1" spans="1:5">
+    <row r="3" ht="48.75" customHeight="1" spans="1:6">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -1098,89 +1111,104 @@
       <c r="D3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="1">
+      <c r="E3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" s="1">
         <v>20190820</v>
       </c>
     </row>
-    <row r="4" ht="50.25" customHeight="1" spans="1:5">
+    <row r="4" ht="50.25" customHeight="1" spans="1:6">
       <c r="A4" s="1">
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E4" s="1">
+      <c r="F4" s="1">
         <v>20190820</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:6">
       <c r="A5" s="1">
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E5" s="1">
+      <c r="F5" s="1">
         <v>20190820</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:6">
       <c r="A6" s="1">
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="E6" s="1">
+        <v>18</v>
+      </c>
+      <c r="E6" s="2"/>
+      <c r="F6" s="1">
         <v>20190820</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:6">
       <c r="A7" s="1">
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E7" s="1">
+        <v>15</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F7" s="1">
         <v>20190820</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
-      <c r="A8">
+    <row r="8" spans="1:6">
+      <c r="A8" s="4">
         <v>7</v>
       </c>
-      <c r="B8" t="s">
-        <v>15</v>
-      </c>
-      <c r="C8" t="s">
-        <v>20</v>
-      </c>
-      <c r="E8">
+      <c r="B8" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4">
         <v>20190821</v>
       </c>
     </row>

--- a/软件开发/00_设计方案/01_数据库设计/问题20190818_回答V2.xlsx
+++ b/软件开发/00_设计方案/01_数据库设计/问题20190818_回答V2.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
-  <workbookPr/>
+  <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
     <workbookView windowWidth="19090" windowHeight="8330"/>
   </bookViews>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25">
   <si>
     <t>序号</t>
   </si>
@@ -80,6 +80,15 @@
   </si>
   <si>
     <t>除了工具步骤类型外，其他的步骤类型判断OK NG字段是否也要加在数据库</t>
+  </si>
+  <si>
+    <t>?</t>
+  </si>
+  <si>
+    <t>BOM对应的物料架物理地址会随着作业程序变化而不固定，是否要放入数据库内还是server程序里绑定。</t>
+  </si>
+  <si>
+    <t>可能会有一个作业指导书拆分多个步骤模块分配到不同作业台，只有当所有步骤完成M端的数据库才认为产品是完成状态，每个单独的工作台server只是表示该作业台的作业步骤都完成。</t>
   </si>
 </sst>
 </file>
@@ -87,9 +96,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
@@ -102,14 +111,75 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -124,14 +194,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -147,75 +210,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -229,9 +231,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -242,6 +243,14 @@
       <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -254,187 +263,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -463,6 +472,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -479,30 +503,6 @@
       </top>
       <bottom style="double">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -532,6 +532,30 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
@@ -545,21 +569,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -568,10 +577,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -580,137 +589,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="27" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -722,9 +731,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1045,13 +1051,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75454545454545" defaultRowHeight="14" outlineLevelRow="7" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="8.75454545454545" defaultRowHeight="14" outlineLevelCol="5"/>
   <cols>
     <col min="2" max="2" width="33.1272727272727" customWidth="1"/>
     <col min="3" max="3" width="110" customWidth="1"/>
@@ -1197,19 +1203,49 @@
       </c>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="4">
+      <c r="A8" s="1">
         <v>7</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C8" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4">
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1">
         <v>20190821</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="1">
+        <v>8</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F9" s="1">
+        <v>20190829</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="1"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1">
+        <v>20190829</v>
       </c>
     </row>
   </sheetData>
